--- a/xlsx/奈及利亞_intext.xlsx
+++ b/xlsx/奈及利亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>尼日尔</t>
   </si>
   <si>
-    <t>政策_政策_美國_奈及利亞</t>
+    <t>体育运动_体育运动_伊朗_奈及利亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E%E5%9C%8B%E6%97%97</t>
